--- a/Output_testing/R1_201907/Country/HKD/MN/ROMANIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ROMANIA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>749.12397</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>21.90625901168004</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1010.886911</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>31.02353342741038</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1191.486242</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>31.8878973401399</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>645.3507990000001</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>35.92460973551577</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-5.62207913145476</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1574.160136</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>46.0323805485459</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1102.463928</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>33.83397900462295</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1243.407254</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>33.27746596635671</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>482.726439</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>26.87183305105082</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-39.07336350535657</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>117.773174</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.443982248053899</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>89.460948</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.74550464599479</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>106.187949</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.841921540603078</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>85.850435</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.77901844667781</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>43.28793078939266</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>125.111157</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.658563228851117</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>96.669476</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.966730192529168</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>120.091304</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.214018793005528</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>61.321784</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.413587093870779</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-8.884478166112464</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>71.142916</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.080396846388718</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>69.809647</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.142417607443152</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>81.480557</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.180674476334757</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>60.499059</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.367788631096036</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>37.3315653227183</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>100.035869</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.925299075361978</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>83.990774</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.577628176237283</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>181.009819</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.844388732630708</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>53.310065</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.967600385817417</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-55.57205394427799</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>71.418526</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.088456372298974</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>90.105423</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.765283210231864</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>142.079535</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.802492606721022</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>51.536423</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.868867422661173</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-36.1370340587339</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>53.419251</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.562112541420812</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>62.24716</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.9103292643398</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>59.542004</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.593530201230976</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>37.340879</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.078647004597753</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>17.28328614629606</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>19.527155</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5710228644682442</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>45.436041</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.394405765307895</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>46.187844</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.236131124235337</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>32.178677</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.791283771278351</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>39.47545709672544</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>155.487409</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>4.546840831443467</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>160.428366</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>4.923453574428393</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>84.344612</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.257325543377892</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>29.79481</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.658581538989994</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-43.1323077335344</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>382.480491</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>11.18468643148684</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>446.953215</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>13.71673513145432</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>480.667068</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>12.86415367536409</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>256.493719</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>14.27818291844409</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-15.15848138761388</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,537 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>3.310571</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>62.43723876597014</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>4.666831</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>79.75948235639953</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>5.476</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>79.30234787663474</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>5.73854</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>94.29957031837982</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>96.72213196831487</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>3.878173707027108</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>3.508587230158961</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>4.835198541161192</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>2.362558738601474</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>206.8576185089535</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.822338</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>15.5092623152714</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>4.783554629618552</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>5.669060701631722</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>1.625257417874414</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-56.36132596197544</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>4.871584413977645</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.918969498199493</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.349944925706907</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.105064616569791</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-41.21678321678321</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>4.056041995851563</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.758891017632492</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.6433685366631438</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.3383816705984584</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-3.581963758954909</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.008020009663844</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.2569795768938794</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.2691672379760464</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.412277208337231</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.1850539338294509</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.429706740407408</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.809254972109497</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.878369473418583</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.4919904360354325</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.235992839038536</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.4574656440969713</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>4.176255384990263</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>4.348818091548128</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1830,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>748.971352</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>21.93580770383028</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1010.858124</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>31.07845686879765</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1191.400894</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>31.944648540315</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>645.3507990000001</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>36.0467204196193</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-5.610297850369528</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1574.160136</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>46.10386491569216</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1102.463928</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>33.89484322505503</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1243.407254</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>33.33907832497243</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>482.726439</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>26.96317260744789</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-39.07336350535657</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>117.773174</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.449330459215941</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>89.460948</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.750443556666464</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>106.187949</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.847183284069193</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>85.850435</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.795262720899954</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>43.28793078939266</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>125.111157</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.664244666003887</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>96.669476</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.972067067638534</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>120.091304</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.219969464810662</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>61.321784</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.425190155347253</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-8.884478166112464</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>71.142916</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.083627525536852</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>69.809647</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.146271619928623</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>81.480557</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.184711938141371</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>60.499059</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.379236019855075</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>37.3315653227183</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>100.023311</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.92947401811493</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>83.990774</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.582265092560042</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>181.009819</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.853357991773533</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>53.310065</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.977687502029005</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-55.57205394427799</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>71.418526</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.091699567204545</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>90.105423</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.770257700723853</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>142.047946</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.808685836728643</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>51.536423</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.878618937462938</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-36.1370340587339</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>53.419251</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.564538369177361</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>62.24716</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.913765771214345</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>59.542004</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.596480580755742</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>37.340879</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.085712495624931</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>17.28328614629606</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>19.527155</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.571909614351829</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>45.436041</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.396914173197486</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>46.187844</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.238419788708751</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>32.178677</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.797372491193327</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>39.47545709672544</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>155.487409</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>4.553901688072589</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>160.428366</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>4.932310415168295</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>84.344612</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.261504922632058</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>29.79481</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.664219193173537</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-43.1323077335344</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>377.343429</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>11.05160147279964</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>441.130872</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>13.56240450904968</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>473.878787</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>12.70595932709262</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>250.408283</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>13.98680745734679</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-16.16764474206833</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2288,437 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>30.423676</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>10.10240009237034</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>57.712225</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>16.51074323742697</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>43.500764</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>10.99060712975247</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>28.483109</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>13.87701678693125</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-10.16302905022503</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>3.697938</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1.227926868297565</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>6.447033</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1.844415225824659</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>39.81183</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>10.05858615831422</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>23.905444</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>11.64677099283807</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>13.93171449247401</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>38.466164</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>12.7729659869745</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>38.36352</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>10.97532157881444</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>35.157473</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>8.882647978731594</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>19.77262</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.633252453642353</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>7.017843632088616</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2.216764</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.7360924050848833</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>4.602839</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.316814468550036</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>6.714212</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.696367132261622</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>10.301174</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.01874863881958</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>167.1712255666691</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.700526</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.8967290511458411</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>11.838112</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.386735265325554</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>12.09389</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.055559981899218</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>9.182465000000001</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.47371180408742</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>42.22329506416298</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>3.822687</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.269350669587163</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>6.408946</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.833519013147294</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>10.243459</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.588042672508629</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>8.976191</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.373214777561719</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>86.79298092862604</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>5.221425</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.733811667015675</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>2.545614</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.7282682158866586</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>3.535967</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.8933733697359767</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>6.846645</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.335696521020894</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>401.7334775516306</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0.500956</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.143317224197273</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>8.118862</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.051256446500029</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>6.491169</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.162508038704895</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>7.207045917476673</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>RUBBER TYRES, INTERCHANGEABLE TYRE TREADS, TYRE FLAPS AND INNER TUBES FOR WHEELS OF ALL KINDS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>21.367736</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>7.095310183429018</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>25.356305</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>7.254120618376533</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>17.113671</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>4.323823703621346</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>6.382688</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>3.109655919996116</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-45.36983510863658</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>10.362215</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.440847903230409</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>16.781316</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>4.80092388851972</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>14.358877</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>3.627816190341825</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>6.356336</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>3.096817182961854</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-19.68719588945519</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>182.87382</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>60.7245651728646</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>178.986605</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>51.20582126393086</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>205.150458</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>51.83191923633307</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>78.555993</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>38.27260688343586</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-33.20264981666313</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
